--- a/data.xlsx
+++ b/data.xlsx
@@ -485,17 +485,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['', 'mon', 'mon', 'mon', 'mon', 'fri', 'mon', 'mon', 'mon', 'fri']</t>
+          <t>['', 'mon', 'mon', 'mon', 'mon', 'fri', 'mon', 'mon', 'mon', 'fri', 'wed']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['', '01:10', '02:10', '18:00', '01:20', '01:20', '01:20', '17:56', '18:03', '00:58']</t>
+          <t>['', '01:10', '02:10', '18:00', '01:20', '01:20', '01:20', '17:56', '18:03', '00:58', '01:20']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['', 'True', 'True', 'False', 'False', 'False', 'False', 'False', 'True', 'True']</t>
+          <t>['', 'True', 'True', 'False', 'False', 'False', 'False', 'False', 'True', 'True', 'False']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
